--- a/SEP-VanLangHotel/Upload/Demoffff.xlsx
+++ b/SEP-VanLangHotel/Upload/Demoffff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dangt\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8792EA-22B6-4F80-AD16-A01E40039743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E40E447-39BF-4A2D-8709-FC034EE65F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="595" activeTab="1" xr2:uid="{E93DE5FD-DC7B-498D-86AD-F192523F8D5C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="91">
   <si>
     <t>STT</t>
   </si>
@@ -151,16 +151,7 @@
     <t>Mối quan hệ</t>
   </si>
   <si>
-    <t>Con trai</t>
-  </si>
-  <si>
     <t>Họ và Tên</t>
-  </si>
-  <si>
-    <t>Con gái</t>
-  </si>
-  <si>
-    <t>Con gái nuôi</t>
   </si>
   <si>
     <t>80/12/150 Dương Quảng Hàm, Phường 5, Quận Gò Vấp</t>
@@ -1469,7 +1460,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1666,6 +1657,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1714,57 +1717,108 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1773,83 +1827,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2184,53 +2178,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="F1" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="73" t="s">
+      <c r="H1" s="77" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="76"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="74"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="78"/>
     </row>
     <row r="3" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E3" s="24">
         <v>1</v>
@@ -2239,24 +2233,24 @@
         <v>250000</v>
       </c>
       <c r="G3" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="H3" s="68" t="s">
-        <v>57</v>
+        <v>85</v>
+      </c>
+      <c r="H3" s="72" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="56" t="s">
         <v>86</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>89</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
@@ -2265,13 +2259,13 @@
         <v>400000</v>
       </c>
       <c r="G4" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="69"/>
+        <v>87</v>
+      </c>
+      <c r="H4" s="73"/>
     </row>
     <row r="5" spans="1:8" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
@@ -2291,11 +2285,11 @@
       <c r="G5" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="69"/>
+      <c r="H5" s="73"/>
     </row>
     <row r="6" spans="1:8" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="45" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>21</v>
@@ -2315,20 +2309,20 @@
       <c r="G6" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="69"/>
+      <c r="H6" s="73"/>
     </row>
     <row r="7" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E7" s="30">
         <v>1</v>
@@ -2337,22 +2331,22 @@
         <v>280000</v>
       </c>
       <c r="G7" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="H7" s="69"/>
+        <v>85</v>
+      </c>
+      <c r="H7" s="73"/>
     </row>
     <row r="8" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="59" t="s">
         <v>86</v>
-      </c>
-      <c r="D8" s="59" t="s">
-        <v>89</v>
       </c>
       <c r="E8" s="32">
         <v>2</v>
@@ -2361,13 +2355,13 @@
         <v>430000</v>
       </c>
       <c r="G8" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="H8" s="69"/>
+        <v>87</v>
+      </c>
+      <c r="H8" s="73"/>
     </row>
     <row r="9" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9" s="32" t="s">
         <v>20</v>
@@ -2387,11 +2381,11 @@
       <c r="G9" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="69"/>
+      <c r="H9" s="73"/>
     </row>
     <row r="10" spans="1:8" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10" s="35" t="s">
         <v>20</v>
@@ -2411,20 +2405,20 @@
       <c r="G10" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="70"/>
+      <c r="H10" s="74"/>
     </row>
     <row r="11" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E11" s="24">
         <v>1</v>
@@ -2433,22 +2427,22 @@
         <v>310000</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="56" t="s">
         <v>86</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>89</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
@@ -2457,13 +2451,13 @@
         <v>460000</v>
       </c>
       <c r="G12" s="57" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>19</v>
@@ -2484,12 +2478,12 @@
         <v>31</v>
       </c>
       <c r="H13" s="51" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="50" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>19</v>
@@ -2513,16 +2507,16 @@
     </row>
     <row r="15" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B15" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E15" s="30">
         <v>1</v>
@@ -2531,22 +2525,22 @@
         <v>340000</v>
       </c>
       <c r="G15" s="54" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B16" s="32" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="59" t="s">
         <v>86</v>
-      </c>
-      <c r="D16" s="59" t="s">
-        <v>89</v>
       </c>
       <c r="E16" s="32">
         <v>2</v>
@@ -2555,13 +2549,13 @@
         <v>490000</v>
       </c>
       <c r="G16" s="58" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B17" s="32" t="s">
         <v>18</v>
@@ -2585,7 +2579,7 @@
     </row>
     <row r="18" spans="1:8" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="48" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>18</v>
@@ -2609,16 +2603,16 @@
     </row>
     <row r="19" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E19" s="24">
         <v>1</v>
@@ -2627,22 +2621,22 @@
         <v>370000</v>
       </c>
       <c r="G19" s="53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="56" t="s">
         <v>86</v>
-      </c>
-      <c r="D20" s="56" t="s">
-        <v>89</v>
       </c>
       <c r="E20" s="1">
         <v>2</v>
@@ -2651,13 +2645,13 @@
         <v>520000</v>
       </c>
       <c r="G20" s="57" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>17</v>
@@ -2681,7 +2675,7 @@
     </row>
     <row r="22" spans="1:8" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="50" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B22" s="27" t="s">
         <v>17</v>
@@ -2705,16 +2699,16 @@
     </row>
     <row r="23" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="46" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B23" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E23" s="30">
         <v>1</v>
@@ -2723,22 +2717,22 @@
         <v>220000</v>
       </c>
       <c r="G23" s="54" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="47" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B24" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="59" t="s">
         <v>86</v>
-      </c>
-      <c r="D24" s="59" t="s">
-        <v>89</v>
       </c>
       <c r="E24" s="32">
         <v>2</v>
@@ -2747,13 +2741,13 @@
         <v>370000</v>
       </c>
       <c r="G24" s="58" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="47" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B25" s="32" t="s">
         <v>16</v>
@@ -2777,7 +2771,7 @@
     </row>
     <row r="26" spans="1:8" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="48" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>16</v>
@@ -2821,8 +2815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1EC22DE-93F5-4706-915E-304A5F11A983}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2848,39 +2842,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="105" t="s">
+      <c r="A1" s="112" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="121" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q1" s="104"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="125" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="126"/>
     </row>
     <row r="2" spans="1:17" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>36</v>
@@ -2915,31 +2909,31 @@
       <c r="N2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="120" t="s">
+      <c r="O2" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="122" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q2" s="123" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="99">
+      <c r="P2" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2" s="70" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="116">
         <v>1</v>
       </c>
       <c r="B3" s="65">
         <v>1</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="42" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="65"/>
       <c r="E3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="94" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="11">
@@ -2948,47 +2942,47 @@
       <c r="H3" s="65">
         <v>1</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="107">
+      <c r="I3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="119">
         <v>2</v>
       </c>
-      <c r="K3" s="99">
+      <c r="K3" s="116">
         <v>1</v>
       </c>
-      <c r="L3" s="101">
+      <c r="L3" s="122">
         <v>1</v>
       </c>
-      <c r="M3" s="101">
+      <c r="M3" s="122">
         <v>1</v>
       </c>
-      <c r="N3" s="101">
+      <c r="N3" s="122">
         <v>0</v>
       </c>
-      <c r="O3" s="107">
+      <c r="O3" s="119">
         <v>1</v>
       </c>
-      <c r="P3" s="124">
+      <c r="P3" s="106">
         <v>44779</v>
       </c>
-      <c r="Q3" s="127">
+      <c r="Q3" s="109">
         <v>44783</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="109"/>
+    <row r="4" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="117"/>
       <c r="B4" s="66">
         <v>2</v>
       </c>
       <c r="C4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="66" t="s">
-        <v>39</v>
+      <c r="D4" s="71" t="s">
+        <v>41</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="F4" s="97"/>
+      <c r="F4" s="95"/>
       <c r="G4" s="8">
         <v>39571</v>
       </c>
@@ -2996,30 +2990,30 @@
         <v>0</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="110"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
-      <c r="N4" s="102"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="128"/>
-    </row>
-    <row r="5" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="109"/>
+        <v>49</v>
+      </c>
+      <c r="J4" s="120"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="120"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="110"/>
+    </row>
+    <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="117"/>
       <c r="B5" s="66">
         <v>3</v>
       </c>
       <c r="C5" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="66" t="s">
-        <v>37</v>
+      <c r="D5" s="71" t="s">
+        <v>41</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="97"/>
+      <c r="F5" s="95"/>
       <c r="G5" s="8">
         <v>39459</v>
       </c>
@@ -3027,30 +3021,30 @@
         <v>1</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="110"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="110"/>
-      <c r="P5" s="125"/>
-      <c r="Q5" s="128"/>
-    </row>
-    <row r="6" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="109"/>
+        <v>49</v>
+      </c>
+      <c r="J5" s="120"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="123"/>
+      <c r="N5" s="123"/>
+      <c r="O5" s="120"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="110"/>
+    </row>
+    <row r="6" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="117"/>
       <c r="B6" s="66">
         <v>4</v>
       </c>
       <c r="C6" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="66" t="s">
-        <v>39</v>
+      <c r="D6" s="71" t="s">
+        <v>41</v>
       </c>
       <c r="E6" s="7"/>
-      <c r="F6" s="97"/>
+      <c r="F6" s="95"/>
       <c r="G6" s="8">
         <v>40505</v>
       </c>
@@ -3058,64 +3052,64 @@
         <v>0</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="110"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
-      <c r="N6" s="102"/>
-      <c r="O6" s="110"/>
-      <c r="P6" s="125"/>
-      <c r="Q6" s="128"/>
-    </row>
-    <row r="7" spans="1:17" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+        <v>49</v>
+      </c>
+      <c r="J6" s="120"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="123"/>
+      <c r="M6" s="123"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="120"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="110"/>
+    </row>
+    <row r="7" spans="1:17" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="118"/>
       <c r="B7" s="67">
         <v>5</v>
       </c>
       <c r="C7" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="67" t="s">
-        <v>40</v>
+      <c r="D7" s="71" t="s">
+        <v>41</v>
       </c>
       <c r="E7" s="13"/>
-      <c r="F7" s="98"/>
+      <c r="F7" s="96"/>
       <c r="G7" s="14">
         <v>41149</v>
       </c>
       <c r="H7" s="67">
         <v>0</v>
       </c>
-      <c r="I7" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="108"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="125"/>
-      <c r="Q7" s="128"/>
+      <c r="I7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="121"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="110"/>
     </row>
     <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="81">
+      <c r="A8" s="85">
         <v>1</v>
       </c>
       <c r="B8" s="16">
         <v>1</v>
       </c>
-      <c r="C8" s="41" t="s">
-        <v>2</v>
+      <c r="C8" s="42" t="s">
+        <v>9</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="96" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="F8" s="94" t="s">
+        <v>90</v>
       </c>
       <c r="G8" s="11">
         <v>36829</v>
@@ -3124,12 +3118,12 @@
         <v>1</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="84">
+        <v>38</v>
+      </c>
+      <c r="J8" s="127">
         <v>2</v>
       </c>
-      <c r="K8" s="87">
+      <c r="K8" s="88">
         <v>1</v>
       </c>
       <c r="L8" s="91">
@@ -3141,25 +3135,25 @@
       <c r="N8" s="91">
         <v>0</v>
       </c>
-      <c r="O8" s="115">
+      <c r="O8" s="100">
         <v>1</v>
       </c>
-      <c r="P8" s="125"/>
-      <c r="Q8" s="128"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="110"/>
     </row>
     <row r="9" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="17">
         <v>2</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>39</v>
+      <c r="D9" s="71" t="s">
+        <v>41</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="97"/>
+      <c r="F9" s="95"/>
       <c r="G9" s="8">
         <v>39571</v>
       </c>
@@ -3167,30 +3161,30 @@
         <v>0</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="85"/>
-      <c r="K9" s="88"/>
+        <v>38</v>
+      </c>
+      <c r="J9" s="128"/>
+      <c r="K9" s="89"/>
       <c r="L9" s="92"/>
       <c r="M9" s="92"/>
       <c r="N9" s="92"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="128"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="110"/>
     </row>
     <row r="10" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
+      <c r="A10" s="86"/>
       <c r="B10" s="17">
         <v>3</v>
       </c>
       <c r="C10" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>37</v>
+      <c r="D10" s="71" t="s">
+        <v>41</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="97"/>
+      <c r="F10" s="95"/>
       <c r="G10" s="8">
         <v>39459</v>
       </c>
@@ -3198,30 +3192,30 @@
         <v>1</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="85"/>
-      <c r="K10" s="88"/>
+        <v>38</v>
+      </c>
+      <c r="J10" s="128"/>
+      <c r="K10" s="89"/>
       <c r="L10" s="92"/>
       <c r="M10" s="92"/>
       <c r="N10" s="92"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="128"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="107"/>
+      <c r="Q10" s="110"/>
     </row>
     <row r="11" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="82"/>
+      <c r="A11" s="86"/>
       <c r="B11" s="17">
         <v>4</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="D11" s="71" t="s">
+        <v>41</v>
       </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="97"/>
+      <c r="F11" s="95"/>
       <c r="G11" s="8">
         <v>40505</v>
       </c>
@@ -3229,30 +3223,30 @@
         <v>0</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="85"/>
-      <c r="K11" s="88"/>
+        <v>38</v>
+      </c>
+      <c r="J11" s="128"/>
+      <c r="K11" s="89"/>
       <c r="L11" s="92"/>
       <c r="M11" s="92"/>
       <c r="N11" s="92"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="125"/>
-      <c r="Q11" s="128"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="110"/>
     </row>
     <row r="12" spans="1:17" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="83"/>
+      <c r="A12" s="87"/>
       <c r="B12" s="18">
         <v>5</v>
       </c>
       <c r="C12" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>40</v>
+      <c r="D12" s="71" t="s">
+        <v>41</v>
       </c>
       <c r="E12" s="13"/>
-      <c r="F12" s="98"/>
+      <c r="F12" s="96"/>
       <c r="G12" s="14">
         <v>41149</v>
       </c>
@@ -3260,33 +3254,33 @@
         <v>0</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="86"/>
+        <v>38</v>
+      </c>
+      <c r="J12" s="129"/>
       <c r="K12" s="90"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="117"/>
-      <c r="P12" s="125"/>
-      <c r="Q12" s="128"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="102"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="110"/>
     </row>
     <row r="13" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="81">
+      <c r="A13" s="85">
         <v>2</v>
       </c>
       <c r="B13" s="16">
         <v>1</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="96" t="s">
-        <v>60</v>
+        <v>45</v>
+      </c>
+      <c r="F13" s="94" t="s">
+        <v>57</v>
       </c>
       <c r="G13" s="11">
         <v>37157</v>
@@ -3295,12 +3289,12 @@
         <v>1</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" s="84">
+        <v>50</v>
+      </c>
+      <c r="J13" s="127">
         <v>2</v>
       </c>
-      <c r="K13" s="87">
+      <c r="K13" s="88">
         <v>1</v>
       </c>
       <c r="L13" s="91">
@@ -3312,25 +3306,25 @@
       <c r="N13" s="91">
         <v>0</v>
       </c>
-      <c r="O13" s="115">
+      <c r="O13" s="100">
         <v>0</v>
       </c>
-      <c r="P13" s="125"/>
-      <c r="Q13" s="128"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="110"/>
     </row>
     <row r="14" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
+      <c r="A14" s="86"/>
       <c r="B14" s="17">
         <v>2</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="97"/>
+      <c r="F14" s="95"/>
       <c r="G14" s="8">
         <v>39826</v>
       </c>
@@ -3338,30 +3332,30 @@
         <v>1</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" s="85"/>
-      <c r="K14" s="88"/>
+        <v>49</v>
+      </c>
+      <c r="J14" s="128"/>
+      <c r="K14" s="89"/>
       <c r="L14" s="92"/>
       <c r="M14" s="92"/>
       <c r="N14" s="92"/>
-      <c r="O14" s="116"/>
-      <c r="P14" s="125"/>
-      <c r="Q14" s="128"/>
+      <c r="O14" s="101"/>
+      <c r="P14" s="107"/>
+      <c r="Q14" s="110"/>
     </row>
     <row r="15" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="82"/>
+      <c r="A15" s="86"/>
       <c r="B15" s="17">
         <v>3</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="97"/>
+      <c r="F15" s="95"/>
       <c r="G15" s="8">
         <v>40291</v>
       </c>
@@ -3369,30 +3363,30 @@
         <v>0</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="J15" s="85"/>
-      <c r="K15" s="88"/>
+        <v>48</v>
+      </c>
+      <c r="J15" s="128"/>
+      <c r="K15" s="89"/>
       <c r="L15" s="92"/>
       <c r="M15" s="92"/>
       <c r="N15" s="92"/>
-      <c r="O15" s="116"/>
-      <c r="P15" s="125"/>
-      <c r="Q15" s="128"/>
+      <c r="O15" s="101"/>
+      <c r="P15" s="107"/>
+      <c r="Q15" s="110"/>
     </row>
     <row r="16" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
+      <c r="A16" s="86"/>
       <c r="B16" s="17">
         <v>4</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E16" s="7"/>
-      <c r="F16" s="97"/>
+      <c r="F16" s="95"/>
       <c r="G16" s="8">
         <v>40497</v>
       </c>
@@ -3400,19 +3394,19 @@
         <v>0</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J16" s="85"/>
-      <c r="K16" s="88"/>
+        <v>47</v>
+      </c>
+      <c r="J16" s="128"/>
+      <c r="K16" s="89"/>
       <c r="L16" s="92"/>
       <c r="M16" s="92"/>
       <c r="N16" s="92"/>
-      <c r="O16" s="116"/>
-      <c r="P16" s="125"/>
-      <c r="Q16" s="128"/>
+      <c r="O16" s="101"/>
+      <c r="P16" s="107"/>
+      <c r="Q16" s="110"/>
     </row>
     <row r="17" spans="1:17" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="114"/>
+      <c r="A17" s="115"/>
       <c r="B17" s="60">
         <v>5</v>
       </c>
@@ -3420,10 +3414,10 @@
         <v>2</v>
       </c>
       <c r="D17" s="60" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E17" s="62"/>
-      <c r="F17" s="97"/>
+      <c r="F17" s="95"/>
       <c r="G17" s="63">
         <v>39894</v>
       </c>
@@ -3431,30 +3425,30 @@
         <v>1</v>
       </c>
       <c r="I17" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="J17" s="95"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="118"/>
-      <c r="P17" s="125"/>
-      <c r="Q17" s="128"/>
+        <v>88</v>
+      </c>
+      <c r="J17" s="130"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="104"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="105"/>
+      <c r="P17" s="107"/>
+      <c r="Q17" s="110"/>
     </row>
     <row r="18" spans="1:17" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="83"/>
+      <c r="A18" s="87"/>
       <c r="B18" s="18">
         <v>6</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E18" s="13"/>
-      <c r="F18" s="98"/>
+      <c r="F18" s="96"/>
       <c r="G18" s="14">
         <v>40231</v>
       </c>
@@ -3462,16 +3456,16 @@
         <v>0</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="J18" s="86"/>
+        <v>46</v>
+      </c>
+      <c r="J18" s="129"/>
       <c r="K18" s="90"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="94"/>
-      <c r="O18" s="117"/>
-      <c r="P18" s="126"/>
-      <c r="Q18" s="129"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="102"/>
+      <c r="P18" s="108"/>
+      <c r="Q18" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="29">
